--- a/HFA実測閾値配列.xlsx
+++ b/HFA実測閾値配列.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="780" yWindow="460" windowWidth="28020" windowHeight="17540" activeTab="1"/>
+    <workbookView xWindow="780" yWindow="460" windowWidth="28020" windowHeight="17540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="24-2 (2)" sheetId="10" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="182">
   <si>
     <t>30°</t>
     <phoneticPr fontId="3"/>
@@ -911,7 +911,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -945,8 +945,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1154,18 +1160,53 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2569,7 +2610,7 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AQ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AD4" sqref="AD4:AR18"/>
     </sheetView>
   </sheetViews>
@@ -3750,7 +3791,7 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="N5" sqref="N5:Y16"/>
     </sheetView>
   </sheetViews>
@@ -4563,10 +4604,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:Y31"/>
+  <dimension ref="A1:AS31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AD20" sqref="AD20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AG5" sqref="AG5:AR17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4574,15 +4615,30 @@
     <col min="22" max="23" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG5" s="69"/>
+      <c r="AH5" s="69"/>
+      <c r="AI5" s="69"/>
+      <c r="AJ5" s="69"/>
+      <c r="AK5" s="69"/>
+      <c r="AL5" s="69"/>
+      <c r="AM5" s="69"/>
+      <c r="AN5" s="69"/>
+      <c r="AO5" s="69"/>
+      <c r="AP5" s="69"/>
+      <c r="AQ5" s="69"/>
+      <c r="AR5" s="69"/>
+      <c r="AS5" s="70"/>
+    </row>
+    <row r="6" spans="1:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
         <v>3</v>
       </c>
@@ -4619,8 +4675,29 @@
         <v>3</v>
       </c>
       <c r="X6" s="9"/>
-    </row>
-    <row r="7" spans="1:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG6" s="69"/>
+      <c r="AH6" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI6" s="69"/>
+      <c r="AJ6" s="69"/>
+      <c r="AK6" s="72"/>
+      <c r="AL6" s="73">
+        <v>3</v>
+      </c>
+      <c r="AM6" s="69">
+        <v>3</v>
+      </c>
+      <c r="AN6" s="69"/>
+      <c r="AO6" s="69"/>
+      <c r="AP6" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ6" s="69"/>
+      <c r="AR6" s="69"/>
+      <c r="AS6" s="70"/>
+    </row>
+    <row r="7" spans="1:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9">
@@ -4665,8 +4742,33 @@
       </c>
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
-    </row>
-    <row r="8" spans="1:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG7" s="69"/>
+      <c r="AH7" s="69"/>
+      <c r="AI7" s="69"/>
+      <c r="AJ7" s="69">
+        <v>3</v>
+      </c>
+      <c r="AK7" s="69">
+        <v>3</v>
+      </c>
+      <c r="AL7" s="73">
+        <v>3</v>
+      </c>
+      <c r="AM7" s="69">
+        <v>3</v>
+      </c>
+      <c r="AN7" s="69">
+        <v>3</v>
+      </c>
+      <c r="AO7" s="69">
+        <v>3</v>
+      </c>
+      <c r="AP7" s="69"/>
+      <c r="AQ7" s="69"/>
+      <c r="AR7" s="69"/>
+      <c r="AS7" s="70"/>
+    </row>
+    <row r="8" spans="1:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9">
         <v>18</v>
@@ -4719,8 +4821,37 @@
         <v>18</v>
       </c>
       <c r="X8" s="9"/>
-    </row>
-    <row r="9" spans="1:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG8" s="69"/>
+      <c r="AH8" s="69"/>
+      <c r="AI8" s="69">
+        <v>3</v>
+      </c>
+      <c r="AJ8" s="69">
+        <v>3</v>
+      </c>
+      <c r="AK8" s="69">
+        <v>3</v>
+      </c>
+      <c r="AL8" s="73">
+        <v>4</v>
+      </c>
+      <c r="AM8" s="69">
+        <v>4</v>
+      </c>
+      <c r="AN8" s="69">
+        <v>4</v>
+      </c>
+      <c r="AO8" s="69">
+        <v>4</v>
+      </c>
+      <c r="AP8" s="69">
+        <v>4</v>
+      </c>
+      <c r="AQ8" s="69"/>
+      <c r="AR8" s="69"/>
+      <c r="AS8" s="70"/>
+    </row>
+    <row r="9" spans="1:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="9">
         <v>27</v>
@@ -4773,8 +4904,37 @@
         <v>27</v>
       </c>
       <c r="X9" s="9"/>
-    </row>
-    <row r="10" spans="1:25" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AG9" s="69"/>
+      <c r="AH9" s="69"/>
+      <c r="AI9" s="69">
+        <v>3</v>
+      </c>
+      <c r="AJ9" s="69">
+        <v>3</v>
+      </c>
+      <c r="AK9" s="74">
+        <v>3</v>
+      </c>
+      <c r="AL9" s="73">
+        <v>4</v>
+      </c>
+      <c r="AM9" s="69">
+        <v>4</v>
+      </c>
+      <c r="AN9" s="74">
+        <v>4</v>
+      </c>
+      <c r="AO9" s="69">
+        <v>4</v>
+      </c>
+      <c r="AP9" s="69">
+        <v>4</v>
+      </c>
+      <c r="AQ9" s="69"/>
+      <c r="AR9" s="69"/>
+      <c r="AS9" s="70"/>
+    </row>
+    <row r="10" spans="1:45" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -4841,8 +5001,43 @@
       <c r="Y10" s="28" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG10" s="69"/>
+      <c r="AH10" s="75">
+        <v>3</v>
+      </c>
+      <c r="AI10" s="75">
+        <v>3</v>
+      </c>
+      <c r="AJ10" s="75">
+        <v>3</v>
+      </c>
+      <c r="AK10" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="76">
+        <v>4</v>
+      </c>
+      <c r="AM10" s="75">
+        <v>2</v>
+      </c>
+      <c r="AN10" s="75">
+        <v>2</v>
+      </c>
+      <c r="AO10" s="75">
+        <v>2</v>
+      </c>
+      <c r="AP10" s="75">
+        <v>2</v>
+      </c>
+      <c r="AQ10" s="75">
+        <v>2</v>
+      </c>
+      <c r="AR10" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS10" s="70"/>
+    </row>
+    <row r="11" spans="1:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="15">
         <v>48</v>
       </c>
@@ -4903,8 +5098,41 @@
       <c r="X11" s="16">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG11" s="69"/>
+      <c r="AH11" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="77">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="78">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="77">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="73">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="77">
+        <v>5</v>
+      </c>
+      <c r="AN11" s="77">
+        <v>2</v>
+      </c>
+      <c r="AO11" s="67">
+        <v>2</v>
+      </c>
+      <c r="AP11" s="77">
+        <v>2</v>
+      </c>
+      <c r="AQ11" s="77">
+        <v>2</v>
+      </c>
+      <c r="AR11" s="69"/>
+      <c r="AS11" s="70"/>
+    </row>
+    <row r="12" spans="1:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="15"/>
       <c r="C12" s="16">
         <v>67</v>
@@ -4957,8 +5185,37 @@
         <v>57</v>
       </c>
       <c r="X12" s="16"/>
-    </row>
-    <row r="13" spans="1:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG12" s="69"/>
+      <c r="AH12" s="69"/>
+      <c r="AI12" s="77">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="77">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="73">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="77">
+        <v>5</v>
+      </c>
+      <c r="AN12" s="78">
+        <v>5</v>
+      </c>
+      <c r="AO12" s="77">
+        <v>5</v>
+      </c>
+      <c r="AP12" s="77">
+        <v>5</v>
+      </c>
+      <c r="AQ12" s="77"/>
+      <c r="AR12" s="69"/>
+      <c r="AS12" s="70"/>
+    </row>
+    <row r="13" spans="1:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="15"/>
       <c r="C13" s="16">
         <v>66</v>
@@ -5011,8 +5268,37 @@
         <v>66</v>
       </c>
       <c r="X13" s="15"/>
-    </row>
-    <row r="14" spans="1:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG13" s="69"/>
+      <c r="AH13" s="69"/>
+      <c r="AI13" s="77">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="77">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="77">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="73">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="77">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="77">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="77">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="77">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="69"/>
+      <c r="AR13" s="69"/>
+      <c r="AS13" s="70"/>
+    </row>
+    <row r="14" spans="1:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16">
@@ -5057,8 +5343,33 @@
       </c>
       <c r="W14" s="15"/>
       <c r="X14" s="15"/>
-    </row>
-    <row r="15" spans="1:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG14" s="69"/>
+      <c r="AH14" s="69"/>
+      <c r="AI14" s="69"/>
+      <c r="AJ14" s="77">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="77">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="73">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="77">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="77">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="77">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="69"/>
+      <c r="AQ14" s="69"/>
+      <c r="AR14" s="69"/>
+      <c r="AS14" s="70"/>
+    </row>
+    <row r="15" spans="1:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="26" t="s">
         <v>6</v>
       </c>
@@ -5095,16 +5406,67 @@
         <v>6</v>
       </c>
       <c r="X15" s="15"/>
-    </row>
-    <row r="17" spans="2:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG15" s="69"/>
+      <c r="AH15" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI15" s="69"/>
+      <c r="AJ15" s="69"/>
+      <c r="AK15" s="77"/>
+      <c r="AL15" s="73">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="77">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="77"/>
+      <c r="AO15" s="69"/>
+      <c r="AP15" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ15" s="69"/>
+      <c r="AR15" s="69"/>
+      <c r="AS15" s="70"/>
+    </row>
+    <row r="16" spans="1:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG16" s="69"/>
+      <c r="AH16" s="69"/>
+      <c r="AI16" s="69"/>
+      <c r="AJ16" s="69"/>
+      <c r="AK16" s="69"/>
+      <c r="AL16" s="69"/>
+      <c r="AM16" s="69"/>
+      <c r="AN16" s="69"/>
+      <c r="AO16" s="69"/>
+      <c r="AP16" s="69"/>
+      <c r="AQ16" s="69"/>
+      <c r="AR16" s="69"/>
+      <c r="AS16" s="70"/>
+    </row>
+    <row r="17" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="2:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG17" s="69"/>
+      <c r="AH17" s="69"/>
+      <c r="AI17" s="69"/>
+      <c r="AJ17" s="69"/>
+      <c r="AK17" s="69"/>
+      <c r="AL17" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM17" s="69"/>
+      <c r="AN17" s="69"/>
+      <c r="AO17" s="69"/>
+      <c r="AP17" s="69"/>
+      <c r="AQ17" s="69"/>
+      <c r="AR17" s="69"/>
+      <c r="AS17" s="70"/>
+    </row>
+    <row r="19" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F19" t="s">
         <v>10</v>
       </c>
@@ -5112,7 +5474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
         <v>3</v>
       </c>
@@ -5146,7 +5508,7 @@
       </c>
       <c r="X20" s="9"/>
     </row>
-    <row r="21" spans="2:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -5172,7 +5534,7 @@
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
     </row>
-    <row r="22" spans="2:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -5198,7 +5560,7 @@
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
     </row>
-    <row r="23" spans="2:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -5224,7 +5586,7 @@
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
     </row>
-    <row r="24" spans="2:25" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:45" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -5276,7 +5638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="15">
         <v>9</v>
       </c>
@@ -5322,7 +5684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -5348,7 +5710,7 @@
       <c r="W26" s="16"/>
       <c r="X26" s="16"/>
     </row>
-    <row r="27" spans="2:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -5374,7 +5736,7 @@
       <c r="W27" s="16"/>
       <c r="X27" s="15"/>
     </row>
-    <row r="28" spans="2:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="16"/>
@@ -5400,7 +5762,7 @@
       <c r="W28" s="15"/>
       <c r="X28" s="15"/>
     </row>
-    <row r="29" spans="2:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="26"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -5432,7 +5794,7 @@
       </c>
       <c r="X29" s="15"/>
     </row>
-    <row r="31" spans="2:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="2" t="s">
         <v>1</v>
       </c>
@@ -5452,7 +5814,7 @@
   <dimension ref="A1:EO32"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10:AE29"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7854,7 +8216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ31"/>
   <sheetViews>
-    <sheetView topLeftCell="P4" workbookViewId="0">
+    <sheetView topLeftCell="A44" workbookViewId="0">
       <selection activeCell="Z35" sqref="Z35"/>
     </sheetView>
   </sheetViews>
@@ -9368,7 +9730,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/HFA実測閾値配列.xlsx
+++ b/HFA実測閾値配列.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="780" yWindow="460" windowWidth="28020" windowHeight="17540" activeTab="3"/>
+    <workbookView xWindow="780" yWindow="460" windowWidth="28020" windowHeight="17540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="24-2 (2)" sheetId="10" r:id="rId1"/>
@@ -952,7 +952,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1191,6 +1191,96 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4606,8 +4696,8 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AS31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG5" sqref="AG5:AR17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8214,10 +8304,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ31"/>
+  <dimension ref="A1:BB31"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="Z35" sqref="Z35"/>
+    <sheetView tabSelected="1" topLeftCell="M3" workbookViewId="0">
+      <selection activeCell="AE18" sqref="AE18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8225,15 +8315,15 @@
     <col min="22" max="23" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:54" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
     </row>
-    <row r="3" spans="1:52" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:54" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:54" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
         <v>3</v>
       </c>
@@ -8279,7 +8369,7 @@
       </c>
       <c r="X6" s="9"/>
     </row>
-    <row r="7" spans="1:52" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:54" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9">
@@ -8325,7 +8415,7 @@
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
     </row>
-    <row r="8" spans="1:52" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:54" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9">
         <v>18</v>
@@ -8378,32 +8468,43 @@
         <v>18</v>
       </c>
       <c r="X8" s="9"/>
-      <c r="AK8" t="s">
+      <c r="AJ8" s="70"/>
+      <c r="AK8" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AL8" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AM8" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AN8" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AO8" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AP8" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="AQ8" t="s">
+      <c r="AQ8" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="AR8" t="s">
+      <c r="AR8" s="70" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:52" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS8" s="70"/>
+      <c r="AT8" s="70"/>
+      <c r="AU8" s="70"/>
+      <c r="AV8" s="70"/>
+      <c r="AW8" s="70"/>
+      <c r="AX8" s="70"/>
+      <c r="AY8" s="70"/>
+      <c r="AZ8" s="70"/>
+      <c r="BA8" s="70"/>
+      <c r="BB8" s="70"/>
+    </row>
+    <row r="9" spans="1:54" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9">
         <v>28</v>
       </c>
@@ -8464,36 +8565,39 @@
       <c r="X9" s="9">
         <v>28</v>
       </c>
-      <c r="AK9" s="25" t="s">
+      <c r="AJ9" s="70"/>
+      <c r="AK9" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="5">
-        <v>1</v>
-      </c>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
-      <c r="AQ9" s="46">
+      <c r="AL9" s="81"/>
+      <c r="AM9" s="81"/>
+      <c r="AN9" s="82">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="81"/>
+      <c r="AP9" s="81"/>
+      <c r="AQ9" s="83">
         <v>2</v>
       </c>
-      <c r="AR9" s="46"/>
-      <c r="AS9" s="48"/>
-      <c r="AT9" s="9">
-        <v>3</v>
-      </c>
-      <c r="AU9" s="9"/>
-      <c r="AV9" s="9"/>
-      <c r="AW9" s="9">
+      <c r="AR9" s="83"/>
+      <c r="AS9" s="84"/>
+      <c r="AT9" s="85">
+        <v>3</v>
+      </c>
+      <c r="AU9" s="85"/>
+      <c r="AV9" s="85"/>
+      <c r="AW9" s="85">
         <v>4</v>
       </c>
-      <c r="AX9" s="9"/>
-      <c r="AY9" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AZ9" s="9"/>
-    </row>
-    <row r="10" spans="1:52" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AX9" s="85"/>
+      <c r="AY9" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ9" s="85"/>
+      <c r="BA9" s="70"/>
+      <c r="BB9" s="70"/>
+    </row>
+    <row r="10" spans="1:54" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -8560,39 +8664,41 @@
       <c r="Y10" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AJ10" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3">
+      <c r="AK10" s="81"/>
+      <c r="AL10" s="81"/>
+      <c r="AM10" s="81">
         <v>5</v>
       </c>
-      <c r="AN10" s="3">
+      <c r="AN10" s="81">
         <v>6</v>
       </c>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="46">
+      <c r="AO10" s="81"/>
+      <c r="AP10" s="81"/>
+      <c r="AQ10" s="83">
         <v>7</v>
       </c>
-      <c r="AR10" s="46"/>
-      <c r="AS10" s="48"/>
-      <c r="AT10" s="9">
+      <c r="AR10" s="83"/>
+      <c r="AS10" s="84"/>
+      <c r="AT10" s="85">
         <v>8</v>
       </c>
-      <c r="AU10" s="9"/>
-      <c r="AV10" s="9"/>
-      <c r="AW10" s="9">
+      <c r="AU10" s="85"/>
+      <c r="AV10" s="85"/>
+      <c r="AW10" s="85">
         <v>9</v>
       </c>
-      <c r="AX10" s="9">
+      <c r="AX10" s="85">
         <v>10</v>
       </c>
-      <c r="AY10" s="9"/>
-      <c r="AZ10" s="9"/>
-    </row>
-    <row r="11" spans="1:52" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AY10" s="85"/>
+      <c r="AZ10" s="85"/>
+      <c r="BA10" s="70"/>
+      <c r="BB10" s="70"/>
+    </row>
+    <row r="11" spans="1:54" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="15">
         <v>48</v>
       </c>
@@ -8653,43 +8759,45 @@
       <c r="X11" s="16">
         <v>48</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AJ11" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3">
+      <c r="AK11" s="81"/>
+      <c r="AL11" s="81">
         <v>11</v>
       </c>
-      <c r="AM11" s="3">
+      <c r="AM11" s="81">
         <v>12</v>
       </c>
-      <c r="AN11" s="3">
+      <c r="AN11" s="81">
         <v>13</v>
       </c>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="46">
+      <c r="AO11" s="81"/>
+      <c r="AP11" s="81"/>
+      <c r="AQ11" s="83">
         <v>14</v>
       </c>
-      <c r="AR11" s="46"/>
-      <c r="AS11" s="48"/>
-      <c r="AT11" s="9">
+      <c r="AR11" s="83"/>
+      <c r="AS11" s="84"/>
+      <c r="AT11" s="85">
         <v>15</v>
       </c>
-      <c r="AU11" s="9"/>
-      <c r="AV11" s="9"/>
-      <c r="AW11" s="9">
+      <c r="AU11" s="85"/>
+      <c r="AV11" s="85"/>
+      <c r="AW11" s="85">
         <v>16</v>
       </c>
-      <c r="AX11" s="9">
+      <c r="AX11" s="85">
         <v>17</v>
       </c>
-      <c r="AY11" s="9">
+      <c r="AY11" s="85">
         <v>18</v>
       </c>
-      <c r="AZ11" s="9"/>
-    </row>
-    <row r="12" spans="1:52" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AZ11" s="85"/>
+      <c r="BA11" s="70"/>
+      <c r="BB11" s="70"/>
+    </row>
+    <row r="12" spans="1:54" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="15">
         <v>58</v>
       </c>
@@ -8750,51 +8858,53 @@
       <c r="X12" s="16">
         <v>58</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AJ12" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="AK12" s="3">
+      <c r="AK12" s="81">
         <v>19</v>
       </c>
-      <c r="AL12" s="3">
+      <c r="AL12" s="81">
         <v>20</v>
       </c>
-      <c r="AM12" s="3">
+      <c r="AM12" s="81">
         <v>21</v>
       </c>
-      <c r="AN12" s="29">
+      <c r="AN12" s="87">
         <v>22</v>
       </c>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="46">
+      <c r="AO12" s="81"/>
+      <c r="AP12" s="81"/>
+      <c r="AQ12" s="83">
         <v>23</v>
       </c>
-      <c r="AR12" s="38">
+      <c r="AR12" s="88">
         <v>2</v>
       </c>
-      <c r="AS12" s="37">
-        <v>3</v>
-      </c>
-      <c r="AT12" s="9">
+      <c r="AS12" s="89">
+        <v>3</v>
+      </c>
+      <c r="AT12" s="85">
         <v>24</v>
       </c>
-      <c r="AU12" s="9"/>
-      <c r="AV12" s="9"/>
-      <c r="AW12" s="30">
+      <c r="AU12" s="85"/>
+      <c r="AV12" s="85"/>
+      <c r="AW12" s="90">
         <v>25</v>
       </c>
-      <c r="AX12" s="9">
+      <c r="AX12" s="85">
         <v>26</v>
       </c>
-      <c r="AY12" s="9">
+      <c r="AY12" s="85">
         <v>27</v>
       </c>
-      <c r="AZ12" s="9">
+      <c r="AZ12" s="85">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:52" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BA12" s="70"/>
+      <c r="BB12" s="70"/>
+    </row>
+    <row r="13" spans="1:54" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="15"/>
       <c r="C13" s="16">
         <v>66</v>
@@ -8847,39 +8957,41 @@
         <v>66</v>
       </c>
       <c r="X13" s="15"/>
-      <c r="AJ13" t="s">
+      <c r="AJ13" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="41">
+      <c r="AK13" s="81"/>
+      <c r="AL13" s="81"/>
+      <c r="AM13" s="81"/>
+      <c r="AN13" s="81"/>
+      <c r="AO13" s="81"/>
+      <c r="AP13" s="91">
         <v>5</v>
       </c>
-      <c r="AQ13" s="38">
+      <c r="AQ13" s="88">
         <v>6</v>
       </c>
-      <c r="AR13" s="41">
+      <c r="AR13" s="91">
         <v>7</v>
       </c>
-      <c r="AS13" s="37">
+      <c r="AS13" s="89">
         <v>8</v>
       </c>
-      <c r="AT13" s="41">
+      <c r="AT13" s="91">
         <v>9</v>
       </c>
-      <c r="AU13" s="41">
+      <c r="AU13" s="91">
         <v>10</v>
       </c>
-      <c r="AV13" s="9"/>
-      <c r="AW13" s="9"/>
-      <c r="AX13" s="9"/>
-      <c r="AY13" s="9"/>
-      <c r="AZ13" s="9"/>
-    </row>
-    <row r="14" spans="1:52" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AV13" s="85"/>
+      <c r="AW13" s="85"/>
+      <c r="AX13" s="85"/>
+      <c r="AY13" s="85"/>
+      <c r="AZ13" s="85"/>
+      <c r="BA13" s="70"/>
+      <c r="BB13" s="70"/>
+    </row>
+    <row r="14" spans="1:54" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16">
@@ -8924,43 +9036,45 @@
       </c>
       <c r="W14" s="15"/>
       <c r="X14" s="15"/>
-      <c r="AJ14" t="s">
+      <c r="AJ14" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="41">
+      <c r="AK14" s="81"/>
+      <c r="AL14" s="81"/>
+      <c r="AM14" s="81"/>
+      <c r="AN14" s="81"/>
+      <c r="AO14" s="91">
         <v>11</v>
       </c>
-      <c r="AP14" s="41">
+      <c r="AP14" s="91">
         <v>12</v>
       </c>
-      <c r="AQ14" s="38">
+      <c r="AQ14" s="88">
         <v>13</v>
       </c>
-      <c r="AR14" s="41">
+      <c r="AR14" s="91">
         <v>14</v>
       </c>
-      <c r="AS14" s="37">
+      <c r="AS14" s="89">
         <v>15</v>
       </c>
-      <c r="AT14" s="41">
+      <c r="AT14" s="91">
         <v>16</v>
       </c>
-      <c r="AU14" s="41">
+      <c r="AU14" s="91">
         <v>17</v>
       </c>
-      <c r="AV14" s="41">
+      <c r="AV14" s="91">
         <v>18</v>
       </c>
-      <c r="AW14" s="9"/>
-      <c r="AX14" s="9"/>
-      <c r="AY14" s="9"/>
-      <c r="AZ14" s="9"/>
-    </row>
-    <row r="15" spans="1:52" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AW14" s="85"/>
+      <c r="AX14" s="85"/>
+      <c r="AY14" s="85"/>
+      <c r="AZ14" s="85"/>
+      <c r="BA14" s="70"/>
+      <c r="BB14" s="70"/>
+    </row>
+    <row r="15" spans="1:54" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="26" t="s">
         <v>6</v>
       </c>
@@ -9005,234 +9119,247 @@
         <v>6</v>
       </c>
       <c r="X15" s="15"/>
-      <c r="AJ15" t="s">
+      <c r="AJ15" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="AK15" s="47">
+      <c r="AK15" s="83">
         <v>29</v>
       </c>
-      <c r="AL15" s="46">
+      <c r="AL15" s="83">
         <v>30</v>
       </c>
-      <c r="AM15" s="46">
+      <c r="AM15" s="83">
         <v>31</v>
       </c>
-      <c r="AN15" s="46">
+      <c r="AN15" s="83">
         <v>32</v>
       </c>
-      <c r="AO15" s="38">
+      <c r="AO15" s="88">
         <v>20</v>
       </c>
-      <c r="AP15" s="38">
+      <c r="AP15" s="88">
         <v>21</v>
       </c>
-      <c r="AQ15" s="38">
+      <c r="AQ15" s="88">
         <v>22</v>
       </c>
-      <c r="AR15" s="38">
+      <c r="AR15" s="88">
         <v>23</v>
       </c>
-      <c r="AS15" s="37">
+      <c r="AS15" s="89">
         <v>24</v>
       </c>
-      <c r="AT15" s="38">
+      <c r="AT15" s="88">
         <v>25</v>
       </c>
-      <c r="AU15" s="38">
+      <c r="AU15" s="88">
         <v>26</v>
       </c>
-      <c r="AV15" s="38">
+      <c r="AV15" s="88">
         <v>27</v>
       </c>
-      <c r="AW15" s="44">
+      <c r="AW15" s="92">
         <v>35</v>
       </c>
       <c r="AX15" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="AY15" s="44">
+      <c r="AY15" s="92">
         <v>37</v>
       </c>
-      <c r="AZ15" s="44">
+      <c r="AZ15" s="92">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:52" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AJ16" t="s">
+      <c r="BA15" s="70"/>
+      <c r="BB15" s="70"/>
+    </row>
+    <row r="16" spans="1:54" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AJ16" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="AK16" s="7"/>
-      <c r="AL16" s="7"/>
-      <c r="AM16" s="7"/>
-      <c r="AN16" s="42">
+      <c r="AK16" s="93"/>
+      <c r="AL16" s="93"/>
+      <c r="AM16" s="93"/>
+      <c r="AN16" s="94">
         <v>29</v>
       </c>
-      <c r="AO16" s="42">
+      <c r="AO16" s="94">
         <v>30</v>
       </c>
-      <c r="AP16" s="42">
+      <c r="AP16" s="94">
         <v>31</v>
       </c>
-      <c r="AQ16" s="42">
+      <c r="AQ16" s="94">
         <v>32</v>
       </c>
-      <c r="AR16" s="42">
+      <c r="AR16" s="94">
         <v>33</v>
       </c>
-      <c r="AS16" s="43">
+      <c r="AS16" s="95">
         <v>34</v>
       </c>
-      <c r="AT16" s="42">
+      <c r="AT16" s="94">
         <v>35</v>
       </c>
-      <c r="AU16" s="42">
+      <c r="AU16" s="94">
         <v>36</v>
       </c>
-      <c r="AV16" s="42">
+      <c r="AV16" s="94">
         <v>37</v>
       </c>
-      <c r="AW16" s="42">
+      <c r="AW16" s="94">
         <v>38</v>
       </c>
-      <c r="AX16" s="13"/>
-      <c r="AY16" s="13"/>
-      <c r="AZ16" s="13"/>
-    </row>
-    <row r="17" spans="2:52" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AX16" s="96"/>
+      <c r="AY16" s="96"/>
+      <c r="AZ16" s="96"/>
+      <c r="BA16" s="70"/>
+      <c r="BB16" s="70"/>
+    </row>
+    <row r="17" spans="2:54" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AK17" s="36"/>
-      <c r="AL17" s="36"/>
-      <c r="AM17" s="36"/>
-      <c r="AN17" s="41">
+      <c r="AJ17" s="70"/>
+      <c r="AK17" s="97"/>
+      <c r="AL17" s="97"/>
+      <c r="AM17" s="97"/>
+      <c r="AN17" s="91">
         <v>39</v>
       </c>
-      <c r="AO17" s="41">
+      <c r="AO17" s="91">
         <v>40</v>
       </c>
-      <c r="AP17" s="41">
+      <c r="AP17" s="91">
         <v>41</v>
       </c>
-      <c r="AQ17" s="41">
+      <c r="AQ17" s="91">
         <v>42</v>
       </c>
-      <c r="AR17" s="41">
+      <c r="AR17" s="91">
         <v>43</v>
       </c>
-      <c r="AS17" s="37">
+      <c r="AS17" s="89">
         <v>44</v>
       </c>
-      <c r="AT17" s="41">
+      <c r="AT17" s="91">
         <v>45</v>
       </c>
-      <c r="AU17" s="41">
+      <c r="AU17" s="91">
         <v>46</v>
       </c>
-      <c r="AV17" s="41">
+      <c r="AV17" s="91">
         <v>47</v>
       </c>
-      <c r="AW17" s="41">
+      <c r="AW17" s="91">
         <v>48</v>
       </c>
-      <c r="AX17" s="15"/>
-      <c r="AY17" s="15"/>
-      <c r="AZ17" s="15"/>
-    </row>
-    <row r="18" spans="2:52" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AK18" s="36">
+      <c r="AX17" s="98"/>
+      <c r="AY17" s="98"/>
+      <c r="AZ17" s="98"/>
+      <c r="BA17" s="70"/>
+      <c r="BB17" s="70"/>
+    </row>
+    <row r="18" spans="2:54" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ18" s="70"/>
+      <c r="AK18" s="97">
         <v>39</v>
       </c>
-      <c r="AL18" s="35">
+      <c r="AL18" s="99">
         <v>40</v>
       </c>
-      <c r="AM18" s="39">
+      <c r="AM18" s="100">
         <v>41</v>
       </c>
-      <c r="AN18" s="35">
+      <c r="AN18" s="99">
         <v>42</v>
       </c>
-      <c r="AO18" s="38">
+      <c r="AO18" s="88">
         <v>50</v>
       </c>
-      <c r="AP18" s="38">
+      <c r="AP18" s="88">
         <v>51</v>
       </c>
-      <c r="AQ18" s="38">
+      <c r="AQ18" s="88">
         <v>52</v>
       </c>
-      <c r="AR18" s="38">
+      <c r="AR18" s="88">
         <v>53</v>
       </c>
-      <c r="AS18" s="37">
+      <c r="AS18" s="89">
         <v>54</v>
       </c>
-      <c r="AT18" s="38">
+      <c r="AT18" s="88">
         <v>55</v>
       </c>
-      <c r="AU18" s="38">
+      <c r="AU18" s="88">
         <v>56</v>
       </c>
-      <c r="AV18" s="38">
+      <c r="AV18" s="88">
         <v>57</v>
       </c>
-      <c r="AW18" s="16">
+      <c r="AW18" s="101">
         <v>45</v>
       </c>
       <c r="AX18" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AY18" s="16">
+      <c r="AY18" s="101">
         <v>47</v>
       </c>
-      <c r="AZ18" s="16">
+      <c r="AZ18" s="101">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="2:52" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BA18" s="70"/>
+      <c r="BB18" s="70"/>
+    </row>
+    <row r="19" spans="2:54" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F19" t="s">
         <v>10</v>
       </c>
       <c r="T19" t="s">
         <v>10</v>
       </c>
-      <c r="AK19" s="36"/>
-      <c r="AL19" s="36"/>
-      <c r="AM19" s="36"/>
-      <c r="AN19" s="36"/>
-      <c r="AO19" s="38">
+      <c r="AJ19" s="70"/>
+      <c r="AK19" s="97"/>
+      <c r="AL19" s="97"/>
+      <c r="AM19" s="97"/>
+      <c r="AN19" s="97"/>
+      <c r="AO19" s="88">
         <v>59</v>
       </c>
-      <c r="AP19" s="38">
+      <c r="AP19" s="88">
         <v>60</v>
       </c>
-      <c r="AQ19" s="38">
+      <c r="AQ19" s="88">
         <v>61</v>
       </c>
-      <c r="AR19" s="38">
+      <c r="AR19" s="88">
         <v>62</v>
       </c>
-      <c r="AS19" s="37">
+      <c r="AS19" s="89">
         <v>63</v>
       </c>
-      <c r="AT19" s="38">
+      <c r="AT19" s="88">
         <v>64</v>
       </c>
-      <c r="AU19" s="38">
+      <c r="AU19" s="88">
         <v>65</v>
       </c>
-      <c r="AV19" s="38">
+      <c r="AV19" s="88">
         <v>66</v>
       </c>
-      <c r="AW19" s="15"/>
-      <c r="AX19" s="15"/>
-      <c r="AY19" s="15"/>
-      <c r="AZ19" s="15"/>
-    </row>
-    <row r="20" spans="2:52" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AW19" s="98"/>
+      <c r="AX19" s="98"/>
+      <c r="AY19" s="98"/>
+      <c r="AZ19" s="98"/>
+      <c r="BA19" s="70"/>
+      <c r="BB19" s="70"/>
+    </row>
+    <row r="20" spans="2:54" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
         <v>3</v>
       </c>
@@ -9265,36 +9392,39 @@
         <v>3</v>
       </c>
       <c r="X20" s="9"/>
-      <c r="AK20" s="36"/>
-      <c r="AL20" s="36"/>
-      <c r="AM20" s="36"/>
-      <c r="AN20" s="36"/>
-      <c r="AO20" s="36"/>
-      <c r="AP20" s="38">
+      <c r="AJ20" s="70"/>
+      <c r="AK20" s="97"/>
+      <c r="AL20" s="97"/>
+      <c r="AM20" s="97"/>
+      <c r="AN20" s="97"/>
+      <c r="AO20" s="97"/>
+      <c r="AP20" s="88">
         <v>67</v>
       </c>
-      <c r="AQ20" s="38">
+      <c r="AQ20" s="88">
         <v>68</v>
       </c>
-      <c r="AR20" s="38">
+      <c r="AR20" s="88">
         <v>69</v>
       </c>
-      <c r="AS20" s="37">
+      <c r="AS20" s="89">
         <v>70</v>
       </c>
-      <c r="AT20" s="38">
+      <c r="AT20" s="88">
         <v>71</v>
       </c>
-      <c r="AU20" s="38">
+      <c r="AU20" s="88">
         <v>72</v>
       </c>
-      <c r="AV20" s="16"/>
-      <c r="AW20" s="15"/>
-      <c r="AX20" s="15"/>
-      <c r="AY20" s="15"/>
-      <c r="AZ20" s="15"/>
-    </row>
-    <row r="21" spans="2:52" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AV20" s="101"/>
+      <c r="AW20" s="98"/>
+      <c r="AX20" s="98"/>
+      <c r="AY20" s="98"/>
+      <c r="AZ20" s="98"/>
+      <c r="BA20" s="70"/>
+      <c r="BB20" s="70"/>
+    </row>
+    <row r="21" spans="2:54" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -9319,48 +9449,51 @@
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
-      <c r="AK21" s="21">
+      <c r="AJ21" s="70"/>
+      <c r="AK21" s="102">
         <v>49</v>
       </c>
-      <c r="AL21" s="19">
+      <c r="AL21" s="103">
         <v>50</v>
       </c>
-      <c r="AM21" s="19">
+      <c r="AM21" s="103">
         <v>51</v>
       </c>
-      <c r="AN21" s="22">
+      <c r="AN21" s="104">
         <v>52</v>
       </c>
-      <c r="AO21" s="36"/>
-      <c r="AP21" s="36"/>
-      <c r="AQ21" s="19">
+      <c r="AO21" s="97"/>
+      <c r="AP21" s="97"/>
+      <c r="AQ21" s="103">
         <v>53</v>
       </c>
-      <c r="AR21" s="38">
+      <c r="AR21" s="88">
         <v>74</v>
       </c>
-      <c r="AS21" s="37">
+      <c r="AS21" s="89">
         <v>75</v>
       </c>
-      <c r="AT21" s="16">
+      <c r="AT21" s="101">
         <v>54</v>
       </c>
-      <c r="AU21" s="15"/>
-      <c r="AV21" s="15"/>
-      <c r="AW21" s="31">
+      <c r="AU21" s="98"/>
+      <c r="AV21" s="98"/>
+      <c r="AW21" s="105">
         <v>55</v>
       </c>
-      <c r="AX21" s="16">
+      <c r="AX21" s="101">
         <v>56</v>
       </c>
-      <c r="AY21" s="16">
+      <c r="AY21" s="101">
         <v>57</v>
       </c>
-      <c r="AZ21" s="16">
+      <c r="AZ21" s="101">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="2:52" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BA21" s="70"/>
+      <c r="BB21" s="70"/>
+    </row>
+    <row r="22" spans="2:54" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -9385,40 +9518,43 @@
       <c r="V22" s="9"/>
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
-      <c r="AK22" s="21"/>
-      <c r="AL22" s="19">
+      <c r="AJ22" s="70"/>
+      <c r="AK22" s="102"/>
+      <c r="AL22" s="103">
         <v>59</v>
       </c>
-      <c r="AM22" s="19">
+      <c r="AM22" s="103">
         <v>60</v>
       </c>
-      <c r="AN22" s="19">
+      <c r="AN22" s="103">
         <v>61</v>
       </c>
-      <c r="AO22" s="36"/>
-      <c r="AP22" s="36"/>
-      <c r="AQ22" s="19">
+      <c r="AO22" s="97"/>
+      <c r="AP22" s="97"/>
+      <c r="AQ22" s="103">
         <v>62</v>
       </c>
-      <c r="AR22" s="35"/>
-      <c r="AS22" s="34"/>
-      <c r="AT22" s="16">
+      <c r="AR22" s="99"/>
+      <c r="AS22" s="106"/>
+      <c r="AT22" s="101">
         <v>63</v>
       </c>
-      <c r="AU22" s="15"/>
-      <c r="AV22" s="15"/>
-      <c r="AW22" s="16">
+      <c r="AU22" s="98"/>
+      <c r="AV22" s="98"/>
+      <c r="AW22" s="101">
         <v>64</v>
       </c>
-      <c r="AX22" s="16">
+      <c r="AX22" s="101">
         <v>65</v>
       </c>
-      <c r="AY22" s="16">
+      <c r="AY22" s="101">
         <v>66</v>
       </c>
-      <c r="AZ22" s="15"/>
-    </row>
-    <row r="23" spans="2:52" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AZ22" s="98"/>
+      <c r="BA22" s="70"/>
+      <c r="BB22" s="70"/>
+    </row>
+    <row r="23" spans="2:54" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -9443,36 +9579,39 @@
       <c r="V23" s="9"/>
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
-      <c r="AK23" s="21"/>
-      <c r="AL23" s="21"/>
-      <c r="AM23" s="19">
+      <c r="AJ23" s="70"/>
+      <c r="AK23" s="102"/>
+      <c r="AL23" s="102"/>
+      <c r="AM23" s="103">
         <v>67</v>
       </c>
-      <c r="AN23" s="19">
+      <c r="AN23" s="103">
         <v>68</v>
       </c>
-      <c r="AO23" s="36"/>
-      <c r="AP23" s="36"/>
-      <c r="AQ23" s="19">
+      <c r="AO23" s="97"/>
+      <c r="AP23" s="97"/>
+      <c r="AQ23" s="103">
         <v>69</v>
       </c>
-      <c r="AR23" s="35"/>
-      <c r="AS23" s="34"/>
-      <c r="AT23" s="16">
+      <c r="AR23" s="99"/>
+      <c r="AS23" s="106"/>
+      <c r="AT23" s="101">
         <v>70</v>
       </c>
-      <c r="AU23" s="15"/>
-      <c r="AV23" s="15"/>
-      <c r="AW23" s="16">
+      <c r="AU23" s="98"/>
+      <c r="AV23" s="98"/>
+      <c r="AW23" s="101">
         <v>71</v>
       </c>
-      <c r="AX23" s="16">
+      <c r="AX23" s="101">
         <v>72</v>
       </c>
-      <c r="AY23" s="15"/>
-      <c r="AZ23" s="15"/>
-    </row>
-    <row r="24" spans="2:52" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AY23" s="98"/>
+      <c r="AZ23" s="98"/>
+      <c r="BA23" s="70"/>
+      <c r="BB23" s="70"/>
+    </row>
+    <row r="24" spans="2:54" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -9523,36 +9662,39 @@
       <c r="Y24" t="s">
         <v>9</v>
       </c>
-      <c r="AK24" s="27" t="s">
+      <c r="AJ24" s="70"/>
+      <c r="AK24" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="AL24" s="21"/>
-      <c r="AM24" s="21"/>
-      <c r="AN24" s="19">
+      <c r="AL24" s="102"/>
+      <c r="AM24" s="102"/>
+      <c r="AN24" s="103">
         <v>73</v>
       </c>
-      <c r="AO24" s="36"/>
-      <c r="AP24" s="36"/>
-      <c r="AQ24" s="19">
+      <c r="AO24" s="97"/>
+      <c r="AP24" s="97"/>
+      <c r="AQ24" s="103">
         <v>74</v>
       </c>
-      <c r="AR24" s="35"/>
-      <c r="AS24" s="34"/>
-      <c r="AT24" s="16">
+      <c r="AR24" s="99"/>
+      <c r="AS24" s="106"/>
+      <c r="AT24" s="101">
         <v>75</v>
       </c>
-      <c r="AU24" s="15"/>
-      <c r="AV24" s="15"/>
-      <c r="AW24" s="16">
+      <c r="AU24" s="98"/>
+      <c r="AV24" s="98"/>
+      <c r="AW24" s="101">
         <v>76</v>
       </c>
-      <c r="AX24" s="15"/>
-      <c r="AY24" s="26" t="s">
+      <c r="AX24" s="98"/>
+      <c r="AY24" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="AZ24" s="15"/>
-    </row>
-    <row r="25" spans="2:52" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AZ24" s="98"/>
+      <c r="BA24" s="70"/>
+      <c r="BB24" s="70"/>
+    </row>
+    <row r="25" spans="2:54" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="15">
         <v>27</v>
       </c>
@@ -9597,8 +9739,27 @@
       <c r="X25" s="16">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="2:52" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ25" s="70"/>
+      <c r="AK25" s="70"/>
+      <c r="AL25" s="70"/>
+      <c r="AM25" s="70"/>
+      <c r="AN25" s="70"/>
+      <c r="AO25" s="70"/>
+      <c r="AP25" s="70"/>
+      <c r="AQ25" s="70"/>
+      <c r="AR25" s="70"/>
+      <c r="AS25" s="70"/>
+      <c r="AT25" s="70"/>
+      <c r="AU25" s="70"/>
+      <c r="AV25" s="70"/>
+      <c r="AW25" s="70"/>
+      <c r="AX25" s="70"/>
+      <c r="AY25" s="70"/>
+      <c r="AZ25" s="70"/>
+      <c r="BA25" s="70"/>
+      <c r="BB25" s="70"/>
+    </row>
+    <row r="26" spans="2:54" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -9623,11 +9784,29 @@
       <c r="V26" s="16"/>
       <c r="W26" s="16"/>
       <c r="X26" s="16"/>
-      <c r="AS26" s="2" t="s">
+      <c r="AJ26" s="70"/>
+      <c r="AK26" s="70"/>
+      <c r="AL26" s="70"/>
+      <c r="AM26" s="70"/>
+      <c r="AN26" s="70"/>
+      <c r="AO26" s="70"/>
+      <c r="AP26" s="70"/>
+      <c r="AQ26" s="70"/>
+      <c r="AR26" s="70"/>
+      <c r="AS26" s="109" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="2:52" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AT26" s="70"/>
+      <c r="AU26" s="70"/>
+      <c r="AV26" s="70"/>
+      <c r="AW26" s="70"/>
+      <c r="AX26" s="70"/>
+      <c r="AY26" s="70"/>
+      <c r="AZ26" s="70"/>
+      <c r="BA26" s="70"/>
+      <c r="BB26" s="70"/>
+    </row>
+    <row r="27" spans="2:54" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -9653,7 +9832,7 @@
       <c r="W27" s="16"/>
       <c r="X27" s="15"/>
     </row>
-    <row r="28" spans="2:52" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:54" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="16"/>
@@ -9679,7 +9858,7 @@
       <c r="W28" s="15"/>
       <c r="X28" s="15"/>
     </row>
-    <row r="29" spans="2:52" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:54" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="26"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -9711,7 +9890,7 @@
       </c>
       <c r="X29" s="15"/>
     </row>
-    <row r="31" spans="2:52" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:54" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="2" t="s">
         <v>1</v>
       </c>
